--- a/data/trans_orig/P36B14_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555711F6-AC68-4FA1-9226-393F7ADBA4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B4E09E-2E32-4A15-BB27-4800118DF343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB577B02-3D11-403D-B046-F91C0198DE2D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81A64C6D-0E83-4D30-84DE-7514ED4694F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="235">
-  <si>
-    <t>Población que consume menos de una bebida azucarada por día en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
+  <si>
+    <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>SÍ</t>
@@ -75,28 +75,28 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>NO</t>
@@ -105,157 +105,151 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>91,42%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>82,81%</t>
@@ -264,31 +258,31 @@
     <t>79,77%</t>
   </si>
   <si>
-    <t>85,2%</t>
+    <t>85,25%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>14,8%</t>
+    <t>14,75%</t>
   </si>
   <si>
     <t>20,23%</t>
@@ -297,10 +291,10 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,70 +303,70 @@
     <t>83,92%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>85,95%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>14,05%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>85,59%</t>
+    <t>85,49%</t>
   </si>
   <si>
     <t>87,8%</t>
@@ -381,19 +375,19 @@
     <t>85,58%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>13,27%</t>
@@ -402,16 +396,16 @@
     <t>12,2%</t>
   </si>
   <si>
-    <t>14,41%</t>
+    <t>14,51%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1153,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C062A13D-F45D-4BB3-A65E-7C211EB3AF20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571BEE00-39B8-4F60-B86F-9C9B9158E0BB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1465,10 +1459,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,13 +1477,13 @@
         <v>55823</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -1498,13 +1492,13 @@
         <v>58280</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -1513,13 +1507,13 @@
         <v>114103</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,7 +1569,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1587,13 +1581,13 @@
         <v>843657</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>841</v>
@@ -1602,13 +1596,13 @@
         <v>904389</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1628</v>
@@ -1617,13 +1611,13 @@
         <v>1748046</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,13 +1632,13 @@
         <v>175292</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>136</v>
@@ -1653,13 +1647,13 @@
         <v>138524</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>297</v>
@@ -1668,13 +1662,13 @@
         <v>313816</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,7 +1724,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1742,13 +1736,13 @@
         <v>623967</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>597</v>
@@ -1757,13 +1751,13 @@
         <v>643710</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1168</v>
@@ -1772,13 +1766,13 @@
         <v>1267677</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1793,13 +1787,13 @@
         <v>132106</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -1808,13 +1802,13 @@
         <v>133628</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -1823,13 +1817,13 @@
         <v>265734</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,7 +1879,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1897,13 +1891,13 @@
         <v>776002</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>829</v>
@@ -1912,13 +1906,13 @@
         <v>907292</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1600</v>
@@ -1927,13 +1921,13 @@
         <v>1683293</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1942,13 @@
         <v>148677</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -1963,13 +1957,13 @@
         <v>126382</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -1978,13 +1972,13 @@
         <v>275059</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2046,13 @@
         <v>2844806</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2860</v>
@@ -2067,13 +2061,13 @@
         <v>3054878</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5572</v>
@@ -2082,13 +2076,13 @@
         <v>5899683</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2097,13 @@
         <v>526300</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -2118,13 +2112,13 @@
         <v>467390</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>957</v>
@@ -2133,13 +2127,13 @@
         <v>993690</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,7 +2189,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73DD442-2FA7-4D5E-862C-11878CACDED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6454C6-EC48-4733-923B-A32591806AB7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2340,13 +2334,13 @@
         <v>81572</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>216</v>
@@ -2355,13 +2349,13 @@
         <v>111622</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>316</v>
@@ -2370,13 +2364,13 @@
         <v>193194</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2385,13 @@
         <v>19333</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -2406,13 +2400,13 @@
         <v>19111</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -2421,13 +2415,13 @@
         <v>38444</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2489,13 @@
         <v>397685</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>818</v>
@@ -2510,13 +2504,13 @@
         <v>465113</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>1285</v>
@@ -2525,13 +2519,13 @@
         <v>862798</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2540,13 @@
         <v>151203</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>176</v>
@@ -2561,13 +2555,13 @@
         <v>126812</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>320</v>
@@ -2576,13 +2570,13 @@
         <v>278015</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2632,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2650,13 +2644,13 @@
         <v>708470</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>1137</v>
@@ -2665,13 +2659,13 @@
         <v>761447</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1802</v>
@@ -2680,13 +2674,13 @@
         <v>1469916</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2695,13 @@
         <v>329906</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>377</v>
@@ -2716,13 +2710,13 @@
         <v>297709</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>675</v>
@@ -2731,13 +2725,13 @@
         <v>627615</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,7 +2787,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2805,13 +2799,13 @@
         <v>547515</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>845</v>
@@ -2820,13 +2814,13 @@
         <v>713983</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>1358</v>
@@ -2835,13 +2829,13 @@
         <v>1261497</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2850,13 @@
         <v>181257</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -2871,13 +2865,13 @@
         <v>160388</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -2886,13 +2880,13 @@
         <v>341645</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2942,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2960,13 +2954,13 @@
         <v>677861</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>1228</v>
@@ -2975,13 +2969,13 @@
         <v>877603</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>1954</v>
@@ -2990,13 +2984,13 @@
         <v>1555464</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3005,13 @@
         <v>285268</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>327</v>
@@ -3026,13 +3020,13 @@
         <v>267807</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>605</v>
@@ -3041,13 +3035,13 @@
         <v>553075</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3109,13 @@
         <v>2413102</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>4244</v>
@@ -3130,13 +3124,13 @@
         <v>2929767</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>6715</v>
@@ -3145,13 +3139,13 @@
         <v>5342869</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3160,13 @@
         <v>966968</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>1109</v>
@@ -3181,13 +3175,13 @@
         <v>871827</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>2009</v>
@@ -3196,13 +3190,13 @@
         <v>1838795</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3252,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B4E09E-2E32-4A15-BB27-4800118DF343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E87E7B-399A-4D68-A8DB-FFD96A231073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81A64C6D-0E83-4D30-84DE-7514ED4694F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DAC2EFF-90C8-47BA-9C5D-EE2CE94464E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
   <si>
     <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -69,64 +69,64 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,55 @@
     <t>89,94%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>91,42%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>8,58%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -189,19 +195,19 @@
     <t>82,8%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>84,78%</t>
@@ -210,31 +216,31 @@
     <t>83,22%</t>
   </si>
   <si>
-    <t>86,42%</t>
+    <t>86,25%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>13,58%</t>
+    <t>13,75%</t>
   </si>
   <si>
     <t>16,78%</t>
@@ -246,55 +252,55 @@
     <t>82,53%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -303,10 +309,10 @@
     <t>83,92%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>87,77%</t>
@@ -315,31 +321,31 @@
     <t>85,59%</t>
   </si>
   <si>
-    <t>89,73%</t>
+    <t>89,63%</t>
   </si>
   <si>
     <t>85,95%</t>
   </si>
   <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,27%</t>
+    <t>10,37%</t>
   </si>
   <si>
     <t>14,41%</t>
@@ -348,10 +354,10 @@
     <t>14,05%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>84,39%</t>
@@ -360,31 +366,28 @@
     <t>83,16%</t>
   </si>
   <si>
-    <t>85,68%</t>
+    <t>85,63%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>14,32%</t>
+    <t>14,37%</t>
   </si>
   <si>
     <t>16,84%</t>
@@ -393,19 +396,16 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>12,18%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -417,325 +417,319 @@
     <t>80,84%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>78,58%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>75,63%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>75,13%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>73,2%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>26,8%</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571BEE00-39B8-4F60-B86F-9C9B9158E0BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EA578B-7545-40B2-BE75-B32123261C48}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,10 +1453,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,13 +1471,13 @@
         <v>55823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -1492,13 +1486,13 @@
         <v>58280</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -1507,13 +1501,13 @@
         <v>114103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,7 +1563,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1581,13 +1575,13 @@
         <v>843657</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>841</v>
@@ -1596,13 +1590,13 @@
         <v>904389</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1628</v>
@@ -1611,13 +1605,13 @@
         <v>1748046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1626,13 @@
         <v>175292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>136</v>
@@ -1647,13 +1641,13 @@
         <v>138524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>297</v>
@@ -1662,13 +1656,13 @@
         <v>313816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1718,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1736,13 +1730,13 @@
         <v>623967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>597</v>
@@ -1751,13 +1745,13 @@
         <v>643710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1168</v>
@@ -1766,13 +1760,13 @@
         <v>1267677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1781,13 @@
         <v>132106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -1802,13 +1796,13 @@
         <v>133628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -1817,13 +1811,13 @@
         <v>265734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,7 +1873,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1891,13 +1885,13 @@
         <v>776002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>829</v>
@@ -1906,13 +1900,13 @@
         <v>907292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1600</v>
@@ -1921,13 +1915,13 @@
         <v>1683293</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1936,13 @@
         <v>148677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -1957,13 +1951,13 @@
         <v>126382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -1972,13 +1966,13 @@
         <v>275059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2040,13 @@
         <v>2844806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2860</v>
@@ -2061,13 +2055,13 @@
         <v>3054878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5572</v>
@@ -2079,10 +2073,10 @@
         <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2091,13 @@
         <v>526300</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -2112,13 +2106,13 @@
         <v>467390</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>957</v>
@@ -2210,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6454C6-EC48-4733-923B-A32591806AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FC4F78-E70E-4BDB-B75A-CBFC7E38196D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,7 +2626,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2787,7 +2781,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2942,7 +2936,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3145,7 +3139,7 @@
         <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3154,13 @@
         <v>966968</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1109</v>
@@ -3175,13 +3169,13 @@
         <v>871827</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>2009</v>
@@ -3190,13 +3184,13 @@
         <v>1838795</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B14_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E87E7B-399A-4D68-A8DB-FFD96A231073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E158BA-81A2-48D1-B5BC-6BA03705689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DAC2EFF-90C8-47BA-9C5D-EE2CE94464E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B173FC8B-732B-4ED7-86EC-A2398C1BC329}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="192">
   <si>
     <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -66,129 +66,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -246,7 +189,7 @@
     <t>16,78%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>82,53%</t>
@@ -414,322 +357,262 @@
     <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>73,15%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1024,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EA578B-7545-40B2-BE75-B32123261C48}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482D6B38-013F-40C1-BB99-1F678BDA61F2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1259,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>100</v>
+        <v>583</v>
       </c>
       <c r="D4" s="7">
-        <v>102145</v>
+        <v>601181</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1274,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>105</v>
+        <v>593</v>
       </c>
       <c r="I4" s="7">
-        <v>102783</v>
+        <v>599486</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1289,10 +1172,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>205</v>
+        <v>1176</v>
       </c>
       <c r="N4" s="7">
-        <v>204929</v>
+        <v>1200667</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1310,10 +1193,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>14401</v>
+        <v>70224</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1325,10 +1208,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>10577</v>
+        <v>68857</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1340,10 +1223,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="N5" s="7">
-        <v>24977</v>
+        <v>139081</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1361,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>649</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>671405</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1376,10 +1259,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>662</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>668343</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1391,10 +1274,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1311</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1339748</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1414,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>483</v>
+        <v>787</v>
       </c>
       <c r="D7" s="7">
-        <v>499036</v>
+        <v>843657</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1429,10 +1312,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>488</v>
+        <v>841</v>
       </c>
       <c r="I7" s="7">
-        <v>496703</v>
+        <v>904389</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1444,10 +1327,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>971</v>
+        <v>1628</v>
       </c>
       <c r="N7" s="7">
-        <v>995739</v>
+        <v>1748046</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1465,10 +1348,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>55823</v>
+        <v>175292</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1480,10 +1363,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="I8" s="7">
-        <v>58280</v>
+        <v>138524</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1495,10 +1378,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="N8" s="7">
-        <v>114103</v>
+        <v>313816</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1516,10 +1399,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>536</v>
+        <v>948</v>
       </c>
       <c r="D9" s="7">
-        <v>554859</v>
+        <v>1018949</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1531,10 +1414,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>554983</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1546,10 +1429,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1083</v>
+        <v>1925</v>
       </c>
       <c r="N9" s="7">
-        <v>1109842</v>
+        <v>2061862</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1569,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>787</v>
+        <v>571</v>
       </c>
       <c r="D10" s="7">
-        <v>843657</v>
+        <v>623967</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1584,10 +1467,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>841</v>
+        <v>597</v>
       </c>
       <c r="I10" s="7">
-        <v>904389</v>
+        <v>643710</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1599,10 +1482,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1628</v>
+        <v>1168</v>
       </c>
       <c r="N10" s="7">
-        <v>1748046</v>
+        <v>1267677</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1620,10 +1503,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D11" s="7">
-        <v>175292</v>
+        <v>132106</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1635,10 +1518,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>138524</v>
+        <v>133628</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1650,10 +1533,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="N11" s="7">
-        <v>313816</v>
+        <v>265734</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1671,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>948</v>
+        <v>693</v>
       </c>
       <c r="D12" s="7">
-        <v>1018949</v>
+        <v>756073</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1686,10 +1569,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>729</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>777338</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1701,10 +1584,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1925</v>
+        <v>1422</v>
       </c>
       <c r="N12" s="7">
-        <v>2061862</v>
+        <v>1533411</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1724,10 +1607,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>571</v>
+        <v>771</v>
       </c>
       <c r="D13" s="7">
-        <v>623967</v>
+        <v>776002</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1739,10 +1622,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>597</v>
+        <v>829</v>
       </c>
       <c r="I13" s="7">
-        <v>643710</v>
+        <v>907292</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1754,10 +1637,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1168</v>
+        <v>1600</v>
       </c>
       <c r="N13" s="7">
-        <v>1267677</v>
+        <v>1683293</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1775,10 +1658,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D14" s="7">
-        <v>132106</v>
+        <v>148677</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1790,10 +1673,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I14" s="7">
-        <v>133628</v>
+        <v>126382</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1805,10 +1688,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="N14" s="7">
-        <v>265734</v>
+        <v>275059</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1826,10 +1709,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>693</v>
+        <v>919</v>
       </c>
       <c r="D15" s="7">
-        <v>756073</v>
+        <v>924679</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1841,10 +1724,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>729</v>
+        <v>952</v>
       </c>
       <c r="I15" s="7">
-        <v>777338</v>
+        <v>1033674</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1856,10 +1739,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1422</v>
+        <v>1871</v>
       </c>
       <c r="N15" s="7">
-        <v>1533411</v>
+        <v>1958352</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1873,55 +1756,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>771</v>
+        <v>2712</v>
       </c>
       <c r="D16" s="7">
-        <v>776002</v>
+        <v>2844806</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2860</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3054877</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>829</v>
-      </c>
-      <c r="I16" s="7">
-        <v>907292</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5572</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5899683</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1600</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1683293</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,49 +1813,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>148</v>
+        <v>497</v>
       </c>
       <c r="D17" s="7">
-        <v>148677</v>
+        <v>526300</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>460</v>
+      </c>
+      <c r="I17" s="7">
+        <v>467390</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>123</v>
-      </c>
-      <c r="I17" s="7">
-        <v>126382</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>957</v>
+      </c>
+      <c r="N17" s="7">
+        <v>993690</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>271</v>
-      </c>
-      <c r="N17" s="7">
-        <v>275059</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,10 +1864,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>919</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>924679</v>
+        <v>3371106</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1879,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>952</v>
+        <v>3320</v>
       </c>
       <c r="I18" s="7">
-        <v>1033674</v>
+        <v>3522267</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1894,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1871</v>
+        <v>6529</v>
       </c>
       <c r="N18" s="7">
-        <v>1958352</v>
+        <v>6893373</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2027,171 +1910,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2712</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2844806</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2860</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3054878</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5572</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5899683</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>497</v>
-      </c>
-      <c r="D20" s="7">
-        <v>526300</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>460</v>
-      </c>
-      <c r="I20" s="7">
-        <v>467390</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>957</v>
-      </c>
-      <c r="N20" s="7">
-        <v>993690</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3371106</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3320</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3522268</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6893373</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2204,8 +1931,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FC4F78-E70E-4BDB-B75A-CBFC7E38196D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA70869E-DC04-49BF-A853-D2C995586AE9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2221,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2322,49 +2049,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>100</v>
+        <v>567</v>
       </c>
       <c r="D4" s="7">
-        <v>81572</v>
+        <v>472553</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>216</v>
+        <v>1034</v>
       </c>
       <c r="I4" s="7">
-        <v>111622</v>
+        <v>544348</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>316</v>
+        <v>1601</v>
       </c>
       <c r="N4" s="7">
-        <v>193194</v>
+        <v>1016900</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,49 +2100,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>19333</v>
+        <v>160940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>19111</v>
+        <v>130450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>364</v>
       </c>
       <c r="N5" s="7">
-        <v>38444</v>
+        <v>291391</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>633493</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674798</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2181,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1965</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1308291</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2477,49 +2204,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>467</v>
+        <v>665</v>
       </c>
       <c r="D7" s="7">
-        <v>397685</v>
+        <v>882197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>818</v>
+        <v>1137</v>
       </c>
       <c r="I7" s="7">
-        <v>465113</v>
+        <v>696886</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>1285</v>
+        <v>1802</v>
       </c>
       <c r="N7" s="7">
-        <v>862798</v>
+        <v>1579082</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,49 +2255,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>144</v>
+        <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>151203</v>
+        <v>309830</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>176</v>
+        <v>377</v>
       </c>
       <c r="I8" s="7">
-        <v>126812</v>
+        <v>260897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>320</v>
+        <v>675</v>
       </c>
       <c r="N8" s="7">
-        <v>278015</v>
+        <v>570728</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,10 +2306,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>548888</v>
+        <v>1192027</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2321,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591925</v>
+        <v>957783</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2336,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1140813</v>
+        <v>2149810</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2632,49 +2359,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>665</v>
+        <v>513</v>
       </c>
       <c r="D10" s="7">
-        <v>708470</v>
+        <v>534829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>1137</v>
+        <v>845</v>
       </c>
       <c r="I10" s="7">
-        <v>761447</v>
+        <v>786721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>1802</v>
+        <v>1358</v>
       </c>
       <c r="N10" s="7">
-        <v>1469916</v>
+        <v>1321550</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,49 +2410,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7">
-        <v>329906</v>
+        <v>169851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>377</v>
+        <v>202</v>
       </c>
       <c r="I11" s="7">
-        <v>297709</v>
+        <v>146645</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>675</v>
+        <v>365</v>
       </c>
       <c r="N11" s="7">
-        <v>627615</v>
+        <v>316496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1038376</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2749,10 +2476,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059156</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2764,10 +2491,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2097531</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2787,49 +2514,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>513</v>
+        <v>726</v>
       </c>
       <c r="D13" s="7">
-        <v>547515</v>
+        <v>662598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>845</v>
+        <v>1228</v>
       </c>
       <c r="I13" s="7">
-        <v>713983</v>
+        <v>858346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>1358</v>
+        <v>1954</v>
       </c>
       <c r="N13" s="7">
-        <v>1261497</v>
+        <v>1520945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,49 +2565,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="D14" s="7">
-        <v>181257</v>
+        <v>262177</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="I14" s="7">
-        <v>160388</v>
+        <v>232002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
-        <v>365</v>
+        <v>605</v>
       </c>
       <c r="N14" s="7">
-        <v>341645</v>
+        <v>494179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,10 +2616,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>924775</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2904,10 +2631,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1555</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1090348</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2919,10 +2646,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2559</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2015124</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2936,55 +2663,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>726</v>
+        <v>2471</v>
       </c>
       <c r="D16" s="7">
-        <v>677861</v>
+        <v>2552177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>1228</v>
+        <v>4244</v>
       </c>
       <c r="I16" s="7">
-        <v>877603</v>
+        <v>2886300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>1954</v>
+        <v>6715</v>
       </c>
       <c r="N16" s="7">
-        <v>1555464</v>
+        <v>5438477</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2720,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>278</v>
+        <v>900</v>
       </c>
       <c r="D17" s="7">
-        <v>285268</v>
+        <v>902799</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>327</v>
+        <v>1109</v>
       </c>
       <c r="I17" s="7">
-        <v>267807</v>
+        <v>769995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>605</v>
+        <v>2009</v>
       </c>
       <c r="N17" s="7">
-        <v>553075</v>
+        <v>1672793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2771,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>963129</v>
+        <v>3454976</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2786,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1555</v>
+        <v>5353</v>
       </c>
       <c r="I18" s="7">
-        <v>1145410</v>
+        <v>3656295</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2801,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2559</v>
+        <v>8724</v>
       </c>
       <c r="N18" s="7">
-        <v>2108539</v>
+        <v>7111270</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3090,171 +2817,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2471</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2413102</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4244</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2929767</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6715</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5342869</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>900</v>
-      </c>
-      <c r="D20" s="7">
-        <v>966968</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1109</v>
-      </c>
-      <c r="I20" s="7">
-        <v>871827</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2009</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1838795</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3380070</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5353</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801594</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8724</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181664</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
